--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H2">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I2">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J2">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="N2">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="O2">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="P2">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="Q2">
-        <v>85.14564570352603</v>
+        <v>107.7440328959945</v>
       </c>
       <c r="R2">
-        <v>766.3108113317342</v>
+        <v>969.6962960639502</v>
       </c>
       <c r="S2">
-        <v>0.09733849559201428</v>
+        <v>0.06532396982481216</v>
       </c>
       <c r="T2">
-        <v>0.09762307011378353</v>
+        <v>0.06638027344887537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H3">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I3">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J3">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>2.656916666666666</v>
+        <v>0.380377</v>
       </c>
       <c r="N3">
-        <v>7.970749999999999</v>
+        <v>0.760754</v>
       </c>
       <c r="O3">
-        <v>0.4122874514198319</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="P3">
-        <v>0.4122874514198319</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="Q3">
-        <v>59.73069887891666</v>
+        <v>7.646599519414334</v>
       </c>
       <c r="R3">
-        <v>537.57628991025</v>
+        <v>45.879597116486</v>
       </c>
       <c r="S3">
-        <v>0.06828413034505404</v>
+        <v>0.004636045475955216</v>
       </c>
       <c r="T3">
-        <v>0.06848376280926245</v>
+        <v>0.00314067426541529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.50180766666667</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H4">
-        <v>88.50542300000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I4">
-        <v>0.2173444878184117</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J4">
-        <v>0.2179799065528387</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.787414000000001</v>
+        <v>4.012692</v>
       </c>
       <c r="N4">
-        <v>11.362242</v>
+        <v>12.038076</v>
       </c>
       <c r="O4">
-        <v>0.5877125485801681</v>
+        <v>0.4114420076356565</v>
       </c>
       <c r="P4">
-        <v>0.5877125485801681</v>
+        <v>0.4168614870620697</v>
       </c>
       <c r="Q4">
-        <v>111.7355593820407</v>
+        <v>80.66588862827601</v>
       </c>
       <c r="R4">
-        <v>1005.620034438366</v>
+        <v>725.992997654484</v>
       </c>
       <c r="S4">
-        <v>0.12773608285561</v>
+        <v>0.0489068019175757</v>
       </c>
       <c r="T4">
-        <v>0.1281095264194357</v>
+        <v>0.04969763615874966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I5">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J5">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.656916666666666</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="N5">
-        <v>7.970749999999999</v>
+        <v>16.07905</v>
       </c>
       <c r="O5">
-        <v>0.4122874514198319</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="P5">
-        <v>0.4122874514198319</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="Q5">
-        <v>78.3838444863611</v>
+        <v>158.1203468542389</v>
       </c>
       <c r="R5">
-        <v>705.45460037725</v>
+        <v>1423.08312168815</v>
       </c>
       <c r="S5">
-        <v>0.08960840496280165</v>
+        <v>0.09586655046192477</v>
       </c>
       <c r="T5">
-        <v>0.08987038013340298</v>
+        <v>0.09741673464318232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.76526900000001</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H6">
-        <v>128.295807</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I6">
-        <v>0.3150585073376216</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J6">
-        <v>0.3159795984589672</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.787414000000001</v>
+        <v>0.380377</v>
       </c>
       <c r="N6">
-        <v>11.362242</v>
+        <v>0.760754</v>
       </c>
       <c r="O6">
-        <v>0.5877125485801681</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="P6">
-        <v>0.5877125485801681</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="Q6">
-        <v>161.9697785243661</v>
+        <v>11.22180909482367</v>
       </c>
       <c r="R6">
-        <v>1457.728006719295</v>
+        <v>67.33085456894202</v>
       </c>
       <c r="S6">
-        <v>0.1851638382992572</v>
+        <v>0.00680365398423207</v>
       </c>
       <c r="T6">
-        <v>0.1857051751096578</v>
+        <v>0.004609113756517924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.76526900000001</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H7">
-        <v>128.295807</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.3150585073376216</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J7">
-        <v>0.3159795984589672</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.656916666666666</v>
+        <v>4.012692</v>
       </c>
       <c r="N7">
-        <v>7.970749999999999</v>
+        <v>12.038076</v>
       </c>
       <c r="O7">
-        <v>0.4122874514198319</v>
+        <v>0.4114420076356565</v>
       </c>
       <c r="P7">
-        <v>0.4122874514198319</v>
+        <v>0.4168614870620697</v>
       </c>
       <c r="Q7">
-        <v>113.6237559605833</v>
+        <v>118.381667609572</v>
       </c>
       <c r="R7">
-        <v>1022.61380364525</v>
+        <v>1065.435008486148</v>
       </c>
       <c r="S7">
-        <v>0.1298946690383644</v>
+        <v>0.07177344559028584</v>
       </c>
       <c r="T7">
-        <v>0.1302744233493094</v>
+        <v>0.07293403872159497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H8">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I8">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J8">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="N8">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="O8">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="P8">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="Q8">
-        <v>4.495806233439001</v>
+        <v>331.0909559090611</v>
       </c>
       <c r="R8">
-        <v>26.974837400634</v>
+        <v>2979.81860318155</v>
       </c>
       <c r="S8">
-        <v>0.005139605338832142</v>
+        <v>0.2007366443573673</v>
       </c>
       <c r="T8">
-        <v>0.003436420841164441</v>
+        <v>0.2039826020890488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H9">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I9">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J9">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>2.656916666666666</v>
+        <v>0.380377</v>
       </c>
       <c r="N9">
-        <v>7.970749999999999</v>
+        <v>0.760754</v>
       </c>
       <c r="O9">
-        <v>0.4122874514198319</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="P9">
-        <v>0.4122874514198319</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="Q9">
-        <v>3.153862374624999</v>
+        <v>23.49754205674233</v>
       </c>
       <c r="R9">
-        <v>18.92317424774999</v>
+        <v>140.985252340454</v>
       </c>
       <c r="S9">
-        <v>0.003605495223081526</v>
+        <v>0.01424628990594388</v>
       </c>
       <c r="T9">
-        <v>0.002410690726329492</v>
+        <v>0.00965110379466773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.802223</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H10">
-        <v>119.406669</v>
+        <v>185.323051</v>
       </c>
       <c r="I10">
-        <v>0.2932292783449847</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J10">
-        <v>0.2940865504976541</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.787414000000001</v>
+        <v>4.012692</v>
       </c>
       <c r="N10">
-        <v>11.362242</v>
+        <v>12.038076</v>
       </c>
       <c r="O10">
-        <v>0.5877125485801681</v>
+        <v>0.4114420076356565</v>
       </c>
       <c r="P10">
-        <v>0.5877125485801681</v>
+        <v>0.4168614870620697</v>
       </c>
       <c r="Q10">
-        <v>150.747496621322</v>
+        <v>247.881441387764</v>
       </c>
       <c r="R10">
-        <v>1356.727469591898</v>
+        <v>2230.932972489876</v>
       </c>
       <c r="S10">
-        <v>0.1723345264944545</v>
+        <v>0.1502876712715589</v>
       </c>
       <c r="T10">
-        <v>0.1728383560961266</v>
+        <v>0.1527178574994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.4970125</v>
+      </c>
+      <c r="H11">
+        <v>2.994025</v>
+      </c>
+      <c r="I11">
+        <v>0.008851807577379077</v>
+      </c>
+      <c r="J11">
+        <v>0.005918668690373198</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.359683333333334</v>
+      </c>
+      <c r="N11">
+        <v>16.07905</v>
+      </c>
+      <c r="O11">
+        <v>0.5495559766256753</v>
+      </c>
+      <c r="P11">
+        <v>0.5567946816040513</v>
+      </c>
+      <c r="Q11">
+        <v>8.023512946041668</v>
+      </c>
+      <c r="R11">
+        <v>48.14107767625001</v>
+      </c>
+      <c r="S11">
+        <v>0.004864563758089112</v>
+      </c>
+      <c r="T11">
+        <v>0.003295483248976212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.4970125</v>
+      </c>
+      <c r="H12">
+        <v>2.994025</v>
+      </c>
+      <c r="I12">
+        <v>0.008851807577379077</v>
+      </c>
+      <c r="J12">
+        <v>0.005918668690373198</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.380377</v>
+      </c>
+      <c r="N12">
+        <v>0.760754</v>
+      </c>
+      <c r="O12">
+        <v>0.03900201573866823</v>
+      </c>
+      <c r="P12">
+        <v>0.02634383133387908</v>
+      </c>
+      <c r="Q12">
+        <v>0.5694291237125001</v>
+      </c>
+      <c r="R12">
+        <v>2.27771649485</v>
+      </c>
+      <c r="S12">
+        <v>0.0003452383384486014</v>
+      </c>
+      <c r="T12">
+        <v>0.0001559204097003025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>39.802223</v>
-      </c>
-      <c r="H11">
-        <v>119.406669</v>
-      </c>
-      <c r="I11">
-        <v>0.2932292783449847</v>
-      </c>
-      <c r="J11">
-        <v>0.2940865504976541</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.656916666666666</v>
-      </c>
-      <c r="N11">
-        <v>7.970749999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.4122874514198319</v>
-      </c>
-      <c r="P11">
-        <v>0.4122874514198319</v>
-      </c>
-      <c r="Q11">
-        <v>105.7511896590833</v>
-      </c>
-      <c r="R11">
-        <v>951.7607069317498</v>
-      </c>
-      <c r="S11">
-        <v>0.1208947518505303</v>
-      </c>
-      <c r="T11">
-        <v>0.1212481944015275</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.4970125</v>
+      </c>
+      <c r="H13">
+        <v>2.994025</v>
+      </c>
+      <c r="I13">
+        <v>0.008851807577379077</v>
+      </c>
+      <c r="J13">
+        <v>0.005918668690373198</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.012692</v>
+      </c>
+      <c r="N13">
+        <v>12.038076</v>
+      </c>
+      <c r="O13">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="P13">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="Q13">
+        <v>6.007050082650001</v>
+      </c>
+      <c r="R13">
+        <v>36.0423004959</v>
+      </c>
+      <c r="S13">
+        <v>0.003642005480841364</v>
+      </c>
+      <c r="T13">
+        <v>0.002467265031696684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H14">
+        <v>168.730668</v>
+      </c>
+      <c r="I14">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J14">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.359683333333334</v>
+      </c>
+      <c r="N14">
+        <v>16.07905</v>
+      </c>
+      <c r="O14">
+        <v>0.5495559766256753</v>
+      </c>
+      <c r="P14">
+        <v>0.5567946816040513</v>
+      </c>
+      <c r="Q14">
+        <v>301.4476497006</v>
+      </c>
+      <c r="R14">
+        <v>2713.0288473054</v>
+      </c>
+      <c r="S14">
+        <v>0.182764248223482</v>
+      </c>
+      <c r="T14">
+        <v>0.1857195881739686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H15">
+        <v>168.730668</v>
+      </c>
+      <c r="I15">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J15">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.380377</v>
+      </c>
+      <c r="N15">
+        <v>0.760754</v>
+      </c>
+      <c r="O15">
+        <v>0.03900201573866823</v>
+      </c>
+      <c r="P15">
+        <v>0.02634383133387908</v>
+      </c>
+      <c r="Q15">
+        <v>21.393755100612</v>
+      </c>
+      <c r="R15">
+        <v>128.362530603672</v>
+      </c>
+      <c r="S15">
+        <v>0.01297078803408847</v>
+      </c>
+      <c r="T15">
+        <v>0.00878701910757783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H16">
+        <v>168.730668</v>
+      </c>
+      <c r="I16">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J16">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.012692</v>
+      </c>
+      <c r="N16">
+        <v>12.038076</v>
+      </c>
+      <c r="O16">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="P16">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="Q16">
+        <v>225.688067212752</v>
+      </c>
+      <c r="R16">
+        <v>2031.192604914768</v>
+      </c>
+      <c r="S16">
+        <v>0.1368320833753948</v>
+      </c>
+      <c r="T16">
+        <v>0.1390446896506283</v>
       </c>
     </row>
   </sheetData>
